--- a/MyNotes.xlsx
+++ b/MyNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\c++ github\StackAndQueueSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE3C014A-83F0-4A27-A54C-8F9EC3298D24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4357EE0-E6DC-44F4-91D3-CDADFC6981B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1801AC28-5617-4ABA-846E-71B147189F27}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1801AC28-5617-4ABA-846E-71B147189F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Queue</t>
   </si>
@@ -88,6 +88,42 @@
   </si>
   <si>
     <t>add/push</t>
+  </si>
+  <si>
+    <t>Stack command</t>
+  </si>
+  <si>
+    <t>createStack</t>
+  </si>
+  <si>
+    <t>createQueue</t>
+  </si>
+  <si>
+    <t>addElementToStack</t>
+  </si>
+  <si>
+    <t>addElementToQueue</t>
+  </si>
+  <si>
+    <t>deleteElementFromStack</t>
+  </si>
+  <si>
+    <t>deleteElementFromQueue</t>
+  </si>
+  <si>
+    <t>moveElementFromStackAToStackB</t>
+  </si>
+  <si>
+    <t>deleteStack</t>
+  </si>
+  <si>
+    <t>deleteQueue</t>
+  </si>
+  <si>
+    <t>printStack</t>
+  </si>
+  <si>
+    <t>printQueue</t>
   </si>
 </sst>
 </file>
@@ -118,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +179,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -208,13 +256,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,9 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -767,40 +820,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5696630-8A7D-4517-98D3-301AD10B7F21}">
-  <dimension ref="D2:U15"/>
+  <dimension ref="D2:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="2"/>
       <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="11"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="4"/>
       <c r="U2" s="5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="T3" s="4"/>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -879,7 +934,7 @@
         <v>100</v>
       </c>
       <c r="T4" s="4"/>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -899,7 +954,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -919,15 +974,15 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -943,19 +998,19 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" s="6"/>
+      <c r="N11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="12"/>
+      <c r="M12" s="6"/>
       <c r="N12" t="s">
         <v>19</v>
       </c>
@@ -964,20 +1019,68 @@
       </c>
     </row>
     <row r="13" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M13" s="12"/>
+      <c r="M13" s="6"/>
       <c r="N13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M14" s="12"/>
+      <c r="M14" s="6"/>
       <c r="N14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M15" s="12"/>
-    </row>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="18" spans="4:14" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="12"/>
+      <c r="N21" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="4:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E2:I2"/>

--- a/MyNotes.xlsx
+++ b/MyNotes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\c++ github\StackAndQueueSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4357EE0-E6DC-44F4-91D3-CDADFC6981B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E5107F-DA0C-44BA-9774-B85C0426B6AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1801AC28-5617-4ABA-846E-71B147189F27}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>Queue</t>
   </si>
@@ -124,13 +124,112 @@
   </si>
   <si>
     <t>printQueue</t>
+  </si>
+  <si>
+    <t>simple structure</t>
+  </si>
+  <si>
+    <t>CheckIsStructureIndexOK</t>
+  </si>
+  <si>
+    <t>splitString</t>
+  </si>
+  <si>
+    <t>createStructure</t>
+  </si>
+  <si>
+    <t>checkCanAddElementToStructure</t>
+  </si>
+  <si>
+    <t>checkCanDeleteElementFromStructure</t>
+  </si>
+  <si>
+    <t>checkCanMoveElementFromStructureAToB</t>
+  </si>
+  <si>
+    <t>deleteStructure</t>
+  </si>
+  <si>
+    <t>checkCanPrintStructure</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>TODO:</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>AddElementToStructure</t>
+  </si>
+  <si>
+    <t>DeleteElementFromStructure</t>
+  </si>
+  <si>
+    <t>PrintStructure</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>structure controler</t>
+  </si>
+  <si>
+    <t>frontend core</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>return deleted ele</t>
+  </si>
+  <si>
+    <t>stack is empty</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>-&gt;print</t>
+  </si>
+  <si>
+    <t>-&gt;delete</t>
+  </si>
+  <si>
+    <t>stack is full</t>
+  </si>
+  <si>
+    <t>-&gt;add</t>
+  </si>
+  <si>
+    <t>queue is full</t>
+  </si>
+  <si>
+    <t>queue is empty</t>
+  </si>
+  <si>
+    <t>error: wrong command</t>
+  </si>
+  <si>
+    <t>-&gt;move</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +252,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +305,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -252,11 +372,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -289,6 +492,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -312,13 +534,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -365,13 +587,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -418,13 +640,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -471,13 +693,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -495,6 +717,112 @@
         <a:xfrm>
           <a:off x="11915775" y="1485900"/>
           <a:ext cx="533400" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1605642</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Łącznik prosty ze strzałką 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8AB0CE-320D-477B-B477-1C2B8BD50A8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4095751" y="4816929"/>
+          <a:ext cx="2326820" cy="3741964"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Łącznik prosty ze strzałką 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA29965F-91D6-4E66-9D84-C4C91B85C023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8177893" y="4789714"/>
+          <a:ext cx="2898321" cy="3782786"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -820,271 +1148,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5696630-8A7D-4517-98D3-301AD10B7F21}">
-  <dimension ref="D2:U25"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
     <col min="14" max="14" width="39.42578125" customWidth="1"/>
+    <col min="15" max="15" width="38.140625" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="14" t="s">
+    <row r="1" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="O1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+    </row>
+    <row r="2" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="M2" s="23"/>
+      <c r="O2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+    </row>
+    <row r="3" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="O3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="21"/>
+    </row>
+    <row r="4" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="O4" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+    </row>
+    <row r="5" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="O5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="O6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="O7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="O8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="O9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="O10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="O11" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="5" t="s">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="5" t="s">
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
+    <row r="32" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H32" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I32" s="1">
         <v>3</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1" t="s">
+      <c r="J32" s="2"/>
+      <c r="K32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q32" s="3">
         <v>1</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R32" s="3">
         <v>2</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S32" s="3">
         <v>3</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="7" t="s">
+      <c r="T32" s="4"/>
+      <c r="U32" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+    <row r="33" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F33" s="1">
         <v>40</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G33" s="1">
         <v>30</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H33" s="1">
         <v>20</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I33" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1" t="s">
+      <c r="J33" s="2"/>
+      <c r="K33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="7" t="s">
+      <c r="T33" s="4"/>
+      <c r="U33" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1" t="s">
+    <row r="34" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="7" t="s">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1" t="s">
+    <row r="35" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="7" t="s">
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="8" t="s">
+    <row r="38" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="39" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="40" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="8" t="s">
+      <c r="M40" s="6"/>
+      <c r="N40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T40" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="41" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" t="s">
+      <c r="M41" s="6"/>
+      <c r="N41" t="s">
         <v>19</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M13" s="6"/>
-      <c r="N13" t="s">
+    <row r="42" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="6"/>
+      <c r="N42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M14" s="6"/>
-      <c r="N14" t="s">
+    <row r="43" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="6"/>
+      <c r="N43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M15" s="6"/>
-    </row>
-    <row r="18" spans="4:14" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="11" t="s">
+    <row r="44" spans="4:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="6"/>
+    </row>
+    <row r="47" spans="4:21" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N47" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="4:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="12" t="s">
+    <row r="48" spans="4:21" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N48" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="4:14" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="13" t="s">
+    <row r="49" spans="4:14" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N49" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="4:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="12"/>
-      <c r="N21" s="12" t="s">
+    <row r="50" spans="4:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="12"/>
+      <c r="N50" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="4:14" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="13" t="s">
+    <row r="51" spans="4:14" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N51" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="4:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="12" t="s">
+    <row r="52" spans="4:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N52" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="4:14" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="4:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="4:14" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="4:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="O2:S2"/>
+  <mergeCells count="4">
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
